--- a/facs_comprehensive.xlsx
+++ b/facs_comprehensive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deminuga/Documents/CDK4-project/FACS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4122AD2-F368-9C4E-9213-03EBB460CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16614B98-E593-984A-A608-699136E4E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="5540" windowWidth="24840" windowHeight="13440" activeTab="5" xr2:uid="{749F9E6B-0B5E-CA4A-8304-0B9064E12F7D}"/>
+    <workbookView xWindow="-29260" yWindow="5340" windowWidth="24840" windowHeight="13440" activeTab="1" xr2:uid="{749F9E6B-0B5E-CA4A-8304-0B9064E12F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Apoptosis_quant" sheetId="4" r:id="rId1"/>
@@ -182,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,17 +208,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3648,14 +3795,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910C3C28-E69D-8241-87D6-92356D1CB136}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="176" workbookViewId="0">
-      <selection activeCell="K8" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="11" max="11" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4844,7 +4991,7 @@
     <sortCondition ref="H2:H37"/>
   </sortState>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6760,289 +6907,289 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-      <c r="C74" s="4">
-        <v>2</v>
-      </c>
-      <c r="D74" s="4" t="s">
+    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>44.28</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <v>55.72</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="4">
-        <v>2</v>
-      </c>
-      <c r="C75" s="4">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4" t="s">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>61.43</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <v>38.57</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="4">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4">
-        <v>2</v>
-      </c>
-      <c r="D76" s="4" t="s">
+    <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>57.9</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <v>38.299999999999997</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="4">
-        <v>2</v>
-      </c>
-      <c r="C77" s="4">
-        <v>2</v>
-      </c>
-      <c r="D77" s="4" t="s">
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>57.22</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <v>37.630000000000003</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <v>5.15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="4">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4" t="s">
+    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>71.3</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <v>28.7</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <v>0.44</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="4">
-        <v>2</v>
-      </c>
-      <c r="C79" s="4">
-        <v>2</v>
-      </c>
-      <c r="D79" s="4" t="s">
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>73.790000000000006</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <v>26.21</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <v>0.48</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="C80" s="4">
-        <v>2</v>
-      </c>
-      <c r="D80" s="4" t="s">
+    <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>53.56</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <v>44.2</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="3">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="4">
-        <v>2</v>
-      </c>
-      <c r="C81" s="4">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4" t="s">
+    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>55.71</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <v>42.81</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <v>1.48</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="4">
-        <v>2</v>
-      </c>
-      <c r="C82" s="4">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4" t="s">
+    <row r="82" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="E82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="3">
         <v>69.510000000000005</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <v>30.49</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="4">
+    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="3">
         <v>3</v>
       </c>
-      <c r="C83" s="4">
-        <v>2</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="E83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3">
         <v>70.53</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <v>29.03</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <v>0.44</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="4">
-        <v>1</v>
-      </c>
-      <c r="C84" s="4">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4" t="s">
+    <row r="84" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>41.28</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <v>58.72</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7679,8 +7826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287CC9F8-D3B0-5945-9CC8-53F4052F0810}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="92" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="K8" sqref="H8:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9151,7 +9298,7 @@
       <c r="K42" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -9187,7 +9334,7 @@
       <c r="K43" t="s">
         <v>40</v>
       </c>
-      <c r="L43" s="4"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -9223,7 +9370,7 @@
       <c r="K44" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -9259,7 +9406,7 @@
       <c r="K45" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="4"/>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -9295,7 +9442,7 @@
       <c r="K46" t="s">
         <v>40</v>
       </c>
-      <c r="L46" s="4"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -9331,7 +9478,7 @@
       <c r="K47" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="4"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -11505,7 +11652,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G109">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11517,8 +11664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D143D4-CECE-9743-BF2B-188BEF9381FE}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K16"/>
+    <sheetView topLeftCell="A55" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12155,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -12181,7 +12328,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -12207,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>21</v>
@@ -12233,7 +12380,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>21</v>
@@ -13407,15 +13554,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C81C38B-A68F-B346-AF52-7C1B4CEACD0E}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J4" sqref="H4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -13466,7 +13613,7 @@
       <c r="F2">
         <v>-1.38204756815361</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>0.22204484659574</v>
       </c>
       <c r="H2" t="s">
@@ -13498,7 +13645,7 @@
       <c r="F3">
         <v>-0.52472722274274597</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>0.61785829028035</v>
       </c>
       <c r="H3" t="s">
@@ -13513,31 +13660,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>-11177</v>
+        <v>-622.66666666666799</v>
       </c>
       <c r="D4">
-        <v>4317.4996468087502</v>
+        <v>1362.2680891525499</v>
       </c>
       <c r="E4">
-        <v>5.3318153284630299</v>
+        <v>5.0144577947109896</v>
       </c>
       <c r="F4">
-        <v>-2.5887668591383401</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.6030710412716003E-2</v>
+        <v>-0.45708085774366197</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.66673260399217504</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -13545,31 +13692,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>-2055.44024963027</v>
+        <v>3125.4794948393001</v>
       </c>
       <c r="D5">
-        <v>2362.9371683516001</v>
+        <v>1840.78907117227</v>
       </c>
       <c r="E5">
-        <v>4.3327991732216997</v>
+        <v>4.5006570039274996</v>
       </c>
       <c r="F5">
-        <v>-0.86986665458572598</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.42991786526373499</v>
+        <v>1.69790202679164</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.156749958440384</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>21</v>
@@ -13577,31 +13724,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>2143.1473346542002</v>
+        <v>-43.999999999997598</v>
       </c>
       <c r="D6">
-        <v>193.58899030931499</v>
+        <v>1485.5377253147501</v>
       </c>
       <c r="E6">
-        <v>5.3336855478654899</v>
+        <v>6.75</v>
       </c>
       <c r="F6">
-        <v>11.070605467955</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.0005743813979598E-5</v>
+        <v>-2.9618904488389799E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.97722761308962702</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>14</v>
@@ -13609,31 +13756,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>-4039.8333333333298</v>
+        <v>756.66666666666697</v>
       </c>
       <c r="D7">
-        <v>2894.8591007099099</v>
+        <v>389.84457951700699</v>
       </c>
       <c r="E7">
-        <v>4.2087542087542102</v>
+        <v>5.3333319147799703</v>
       </c>
       <c r="F7">
-        <v>-1.3955198483900799</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.23199111871929501</v>
+        <v>1.94094443381547</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.10633444325593699</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>21</v>
@@ -13641,31 +13788,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>-2309.95099794622</v>
+        <v>-11177</v>
       </c>
       <c r="D8">
-        <v>282.44386295903598</v>
+        <v>4317.4996468087502</v>
       </c>
       <c r="E8">
-        <v>5.3341248818051303</v>
+        <v>5.3318153284630299</v>
       </c>
       <c r="F8">
-        <v>-8.1784428726682599</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.2519984908874102E-4</v>
+        <v>-2.5887668591383401</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.6030710412716003E-2</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>14</v>
@@ -13673,31 +13820,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>1032.1666666666699</v>
+        <v>-2055.44024963027</v>
       </c>
       <c r="D9">
-        <v>2899.7147544900699</v>
+        <v>2362.9371683516001</v>
       </c>
       <c r="E9">
-        <v>4.2087542087542102</v>
+        <v>4.3327991732216997</v>
       </c>
       <c r="F9">
-        <v>0.35595455210496302</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.73900512038150901</v>
+        <v>-0.86986665458572598</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.42991786526373499</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>21</v>
@@ -13705,31 +13852,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>-622.66666666666799</v>
+        <v>334.166666666666</v>
       </c>
       <c r="D10">
-        <v>1362.2680891525499</v>
+        <v>663.23888914483496</v>
       </c>
       <c r="E10">
-        <v>5.0144577947109896</v>
+        <v>7.7160493827160499</v>
       </c>
       <c r="F10">
-        <v>-0.45708085774366197</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.66673260399217504</v>
+        <v>0.50384058012269595</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.62844011365133001</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>14</v>
@@ -13737,31 +13884,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>3125.4794948393001</v>
+        <v>-276.25164226068</v>
       </c>
       <c r="D11">
-        <v>1840.78907117227</v>
+        <v>429.30862143474002</v>
       </c>
       <c r="E11">
-        <v>4.5006570039274996</v>
+        <v>4.50027478449109</v>
       </c>
       <c r="F11">
-        <v>1.69790202679164</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.156749958440384</v>
+        <v>-0.64348030406995604</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.55125128194754303</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>21</v>
@@ -13769,28 +13916,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>334.166666666666</v>
+        <v>-1238.26156201502</v>
       </c>
       <c r="D12">
-        <v>663.23888914483496</v>
+        <v>182.2999400617</v>
       </c>
       <c r="E12">
-        <v>7.7160493827160499</v>
+        <v>4.5018384552352204</v>
       </c>
       <c r="F12">
-        <v>0.50384058012269595</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.62844011365133001</v>
+        <v>-6.7924408619987702</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.58216268393953E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -13801,28 +13948,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>-276.25164226068</v>
+        <v>-465.767379441598</v>
       </c>
       <c r="D13">
-        <v>429.30862143474002</v>
+        <v>403.93925386341999</v>
       </c>
       <c r="E13">
-        <v>4.50027478449109</v>
+        <v>4.5009296801263101</v>
       </c>
       <c r="F13">
-        <v>-0.64348030406995604</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.55125128194754303</v>
+        <v>-1.15306292960348</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.30641844517716499</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -13833,28 +13980,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
-        <v>537.66666666666595</v>
+        <v>2143.1473346542002</v>
       </c>
       <c r="D14">
-        <v>524.10639999767102</v>
+        <v>193.58899030931499</v>
       </c>
       <c r="E14">
-        <v>7.7160493827160499</v>
+        <v>5.3336855478654899</v>
       </c>
       <c r="F14">
-        <v>1.0258731178803699</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.336033529784939</v>
+        <v>11.070605467955</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.0005743813979598E-5</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -13865,28 +14012,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15">
-        <v>745.63908752127395</v>
+        <v>-4039.8333333333298</v>
       </c>
       <c r="D15">
-        <v>690.41326737698796</v>
+        <v>1782.8909238358599</v>
       </c>
       <c r="E15">
-        <v>3.99999919824113</v>
+        <v>7.7160493827160597</v>
       </c>
       <c r="F15">
-        <v>1.0799895117225899</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.34091713987265299</v>
+        <v>-2.2658892248111799</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5.44096685444048E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -13897,31 +14044,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>-3343.3333333333298</v>
+        <v>537.66666666666595</v>
       </c>
       <c r="D16">
-        <v>749.56481201254996</v>
+        <v>524.10639999767102</v>
       </c>
       <c r="E16">
         <v>7.7160493827160499</v>
       </c>
       <c r="F16">
-        <v>-4.4603659079948299</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.3074303333919001E-3</v>
+        <v>1.0258731178803699</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.336033529784939</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>14</v>
@@ -13929,31 +14076,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>2124.6390876247401</v>
+        <v>745.63908752127395</v>
       </c>
       <c r="D17">
-        <v>690.41326668754505</v>
+        <v>690.41326737698796</v>
       </c>
       <c r="E17">
-        <v>3.9999991148660698</v>
+        <v>3.99999919824113</v>
       </c>
       <c r="F17">
-        <v>3.0773439476595001</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3.7027188236221899E-2</v>
+        <v>1.0799895117225899</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.34091713987265299</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>21</v>
@@ -13961,31 +14108,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>-43.999999999997598</v>
+        <v>913.32926322643095</v>
       </c>
       <c r="D18">
-        <v>1485.5377253147501</v>
+        <v>91.787618506924005</v>
       </c>
       <c r="E18">
-        <v>6.75</v>
+        <v>4.5004706404399704</v>
       </c>
       <c r="F18">
-        <v>-2.9618904488389799E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.97722761308962702</v>
+        <v>9.9504625796292299</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.1175004073551101E-4</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>14</v>
@@ -13993,31 +14140,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>756.66666666666697</v>
+        <v>-680.58047741291205</v>
       </c>
       <c r="D19">
-        <v>389.84457951700699</v>
+        <v>570.64924262236798</v>
       </c>
       <c r="E19">
-        <v>5.3333319147799703</v>
+        <v>4.5019912862595399</v>
       </c>
       <c r="F19">
-        <v>1.94094443381547</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.10633444325593699</v>
+        <v>-1.19264239147215</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.29205239070928402</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J19">
         <v>21</v>
@@ -14025,31 +14172,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>-1238.26156201502</v>
+        <v>-2309.95099794622</v>
       </c>
       <c r="D20">
-        <v>182.2999400617</v>
+        <v>282.44386295903598</v>
       </c>
       <c r="E20">
-        <v>4.5018384552352204</v>
+        <v>5.3341248818051303</v>
       </c>
       <c r="F20">
-        <v>-6.7924408619987702</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.58216268393953E-3</v>
+        <v>-8.1784428726682599</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.2519984908874102E-4</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>14</v>
@@ -14057,31 +14204,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1032.1666666666699</v>
+      </c>
+      <c r="D21">
+        <v>1785.88143244191</v>
+      </c>
+      <c r="E21">
+        <v>7.7160493827160499</v>
+      </c>
+      <c r="F21">
+        <v>0.57795923509622005</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.57976226737616399</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>-465.767379441598</v>
-      </c>
-      <c r="D21">
-        <v>403.93925386341999</v>
-      </c>
-      <c r="E21">
-        <v>4.5009296801263101</v>
-      </c>
-      <c r="F21">
-        <v>-1.15306292960348</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.30641844517716499</v>
-      </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
       </c>
       <c r="J21">
         <v>21</v>
@@ -14089,31 +14236,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>913.32926322643095</v>
+        <v>-3343.3333333333298</v>
       </c>
       <c r="D22">
-        <v>91.787618506924005</v>
+        <v>749.56481201254996</v>
       </c>
       <c r="E22">
-        <v>4.5004706404399704</v>
+        <v>7.7160493827160499</v>
       </c>
       <c r="F22">
-        <v>9.9504625796292299</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3.1175004073551101E-4</v>
+        <v>-4.4603659079948299</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.3074303333919001E-3</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>14</v>
@@ -14121,31 +14268,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>-680.58047741291205</v>
+        <v>2124.6390876247401</v>
       </c>
       <c r="D23">
-        <v>570.64924262236798</v>
+        <v>690.41326668754505</v>
       </c>
       <c r="E23">
-        <v>4.5019912862595399</v>
+        <v>3.9999991148660698</v>
       </c>
       <c r="F23">
-        <v>-1.19264239147215</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.29205239070928402</v>
+        <v>3.0773439476595001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.7027188236221899E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>21</v>
@@ -14170,7 +14317,7 @@
       <c r="F24">
         <v>-5.1350320655878203</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>4.8894043058074401E-3</v>
       </c>
       <c r="H24" t="s">
@@ -14202,7 +14349,7 @@
       <c r="F25">
         <v>-1.4139606097938899</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>0.23026871802126</v>
       </c>
       <c r="H25" t="s">
@@ -14214,49 +14361,29 @@
       <c r="J25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="H2:H27"/>
   </sortState>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G255">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
